--- a/biology/Zoologie/Boganmargarya/Boganmargarya.xlsx
+++ b/biology/Zoologie/Boganmargarya/Boganmargarya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boganmargarya huberi
-Boganmargarya est un genre d'escargots d'eau douce de la famille des Viviparidae[1]. Il ne contient qu'une seule espèce, Boganmargarya huberi[1]..
+Boganmargarya est un genre d'escargots d'eau douce de la famille des Viviparidae. Il ne contient qu'une seule espèce, Boganmargarya huberi..
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Boganmargarya et l'espèce Boganmargarya huberi ont été décrits en 2018 par le malacologiste vietnamien  Nguyen Ngoc Thach (d), toutefois, selon le  WoRMS, la validité de ces taxons fait encore débat[1] et l'espèce Boganmargarya huberi pourrait n'être qu'un synonyme[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Boganmargarya et l'espèce Boganmargarya huberi ont été décrits en 2018 par le malacologiste vietnamien  Nguyen Ngoc Thach (d), toutefois, selon le  WoRMS, la validité de ces taxons fait encore débat et l'espèce Boganmargarya huberi pourrait n'être qu'un synonyme.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,7 +585,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Thach, N. N. (2018). New shells of South Asia. Seashells-Landsnails-Freshwater Shells. 3 New Genera, 132 New Species &amp; Subspecies. 48HRBooks Company, Akron, Ohio, USA. 173 pp.</t>
         </is>
